--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_202.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_202.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33250-d82566-Reviews-Days_Inn_Of_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>343</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Days-Inn-By-Wyndham-West-Covina.h21537.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_202.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_202.xlsx
@@ -5109,7 +5109,7 @@
         <v>21523</v>
       </c>
       <c r="B3" t="n">
-        <v>135892</v>
+        <v>166824</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -5174,7 +5174,7 @@
         <v>21523</v>
       </c>
       <c r="B4" t="n">
-        <v>135893</v>
+        <v>166825</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
@@ -5249,7 +5249,7 @@
         <v>21523</v>
       </c>
       <c r="B5" t="n">
-        <v>135894</v>
+        <v>166826</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -5324,7 +5324,7 @@
         <v>21523</v>
       </c>
       <c r="B6" t="n">
-        <v>135895</v>
+        <v>166827</v>
       </c>
       <c r="C6" t="s">
         <v>87</v>
@@ -5464,7 +5464,7 @@
         <v>21523</v>
       </c>
       <c r="B8" t="n">
-        <v>135896</v>
+        <v>166828</v>
       </c>
       <c r="C8" t="s">
         <v>102</v>
@@ -5539,7 +5539,7 @@
         <v>21523</v>
       </c>
       <c r="B9" t="n">
-        <v>135897</v>
+        <v>166829</v>
       </c>
       <c r="C9" t="s">
         <v>112</v>
@@ -5614,7 +5614,7 @@
         <v>21523</v>
       </c>
       <c r="B10" t="n">
-        <v>135898</v>
+        <v>166830</v>
       </c>
       <c r="C10" t="s">
         <v>121</v>
@@ -5764,7 +5764,7 @@
         <v>21523</v>
       </c>
       <c r="B12" t="n">
-        <v>135899</v>
+        <v>166831</v>
       </c>
       <c r="C12" t="s">
         <v>138</v>
@@ -5829,7 +5829,7 @@
         <v>21523</v>
       </c>
       <c r="B13" t="n">
-        <v>135900</v>
+        <v>166832</v>
       </c>
       <c r="C13" t="s">
         <v>147</v>
@@ -5904,7 +5904,7 @@
         <v>21523</v>
       </c>
       <c r="B14" t="n">
-        <v>135901</v>
+        <v>166833</v>
       </c>
       <c r="C14" t="s">
         <v>157</v>
@@ -6050,7 +6050,7 @@
         <v>21523</v>
       </c>
       <c r="B16" t="n">
-        <v>135902</v>
+        <v>166834</v>
       </c>
       <c r="C16" t="s">
         <v>175</v>
@@ -6125,7 +6125,7 @@
         <v>21523</v>
       </c>
       <c r="B17" t="n">
-        <v>135903</v>
+        <v>166835</v>
       </c>
       <c r="C17" t="s">
         <v>185</v>
@@ -6198,7 +6198,7 @@
         <v>21523</v>
       </c>
       <c r="B18" t="n">
-        <v>135904</v>
+        <v>166836</v>
       </c>
       <c r="C18" t="s">
         <v>191</v>
@@ -6273,7 +6273,7 @@
         <v>21523</v>
       </c>
       <c r="B19" t="n">
-        <v>135905</v>
+        <v>166837</v>
       </c>
       <c r="C19" t="s">
         <v>198</v>
@@ -6348,7 +6348,7 @@
         <v>21523</v>
       </c>
       <c r="B20" t="n">
-        <v>135906</v>
+        <v>166838</v>
       </c>
       <c r="C20" t="s">
         <v>207</v>
@@ -6496,7 +6496,7 @@
         <v>21523</v>
       </c>
       <c r="B22" t="n">
-        <v>135907</v>
+        <v>166839</v>
       </c>
       <c r="C22" t="s">
         <v>220</v>
@@ -6571,7 +6571,7 @@
         <v>21523</v>
       </c>
       <c r="B23" t="n">
-        <v>135908</v>
+        <v>166840</v>
       </c>
       <c r="C23" t="s">
         <v>229</v>
@@ -6646,7 +6646,7 @@
         <v>21523</v>
       </c>
       <c r="B24" t="n">
-        <v>135909</v>
+        <v>166841</v>
       </c>
       <c r="C24" t="s">
         <v>237</v>
@@ -6721,7 +6721,7 @@
         <v>21523</v>
       </c>
       <c r="B25" t="n">
-        <v>135910</v>
+        <v>166842</v>
       </c>
       <c r="C25" t="s">
         <v>243</v>
@@ -6796,7 +6796,7 @@
         <v>21523</v>
       </c>
       <c r="B26" t="n">
-        <v>135911</v>
+        <v>166843</v>
       </c>
       <c r="C26" t="s">
         <v>252</v>
@@ -6871,7 +6871,7 @@
         <v>21523</v>
       </c>
       <c r="B27" t="n">
-        <v>135912</v>
+        <v>166844</v>
       </c>
       <c r="C27" t="s">
         <v>261</v>
@@ -7021,7 +7021,7 @@
         <v>21523</v>
       </c>
       <c r="B29" t="n">
-        <v>135913</v>
+        <v>166845</v>
       </c>
       <c r="C29" t="s">
         <v>279</v>
@@ -7096,7 +7096,7 @@
         <v>21523</v>
       </c>
       <c r="B30" t="n">
-        <v>135914</v>
+        <v>166846</v>
       </c>
       <c r="C30" t="s">
         <v>288</v>
@@ -7171,7 +7171,7 @@
         <v>21523</v>
       </c>
       <c r="B31" t="n">
-        <v>135915</v>
+        <v>166847</v>
       </c>
       <c r="C31" t="s">
         <v>296</v>
@@ -7246,7 +7246,7 @@
         <v>21523</v>
       </c>
       <c r="B32" t="n">
-        <v>135916</v>
+        <v>166848</v>
       </c>
       <c r="C32" t="s">
         <v>303</v>
@@ -7390,7 +7390,7 @@
         <v>21523</v>
       </c>
       <c r="B34" t="n">
-        <v>135917</v>
+        <v>166849</v>
       </c>
       <c r="C34" t="s">
         <v>322</v>
@@ -7465,7 +7465,7 @@
         <v>21523</v>
       </c>
       <c r="B35" t="n">
-        <v>135918</v>
+        <v>166850</v>
       </c>
       <c r="C35" t="s">
         <v>330</v>
@@ -7540,7 +7540,7 @@
         <v>21523</v>
       </c>
       <c r="B36" t="n">
-        <v>135919</v>
+        <v>166851</v>
       </c>
       <c r="C36" t="s">
         <v>339</v>
@@ -7613,7 +7613,7 @@
         <v>21523</v>
       </c>
       <c r="B37" t="n">
-        <v>135920</v>
+        <v>166852</v>
       </c>
       <c r="C37" t="s">
         <v>345</v>
@@ -7688,7 +7688,7 @@
         <v>21523</v>
       </c>
       <c r="B38" t="n">
-        <v>135921</v>
+        <v>166853</v>
       </c>
       <c r="C38" t="s">
         <v>351</v>
@@ -7759,7 +7759,7 @@
         <v>21523</v>
       </c>
       <c r="B39" t="n">
-        <v>135922</v>
+        <v>166854</v>
       </c>
       <c r="C39" t="s">
         <v>361</v>
@@ -7830,7 +7830,7 @@
         <v>21523</v>
       </c>
       <c r="B40" t="n">
-        <v>135923</v>
+        <v>166855</v>
       </c>
       <c r="C40" t="s">
         <v>367</v>
@@ -7905,7 +7905,7 @@
         <v>21523</v>
       </c>
       <c r="B41" t="n">
-        <v>135924</v>
+        <v>166856</v>
       </c>
       <c r="C41" t="s">
         <v>374</v>
@@ -7980,7 +7980,7 @@
         <v>21523</v>
       </c>
       <c r="B42" t="n">
-        <v>135925</v>
+        <v>166857</v>
       </c>
       <c r="C42" t="s">
         <v>383</v>
@@ -8126,7 +8126,7 @@
         <v>21523</v>
       </c>
       <c r="B44" t="n">
-        <v>135926</v>
+        <v>166858</v>
       </c>
       <c r="C44" t="s">
         <v>395</v>
@@ -8201,7 +8201,7 @@
         <v>21523</v>
       </c>
       <c r="B45" t="n">
-        <v>135927</v>
+        <v>166859</v>
       </c>
       <c r="C45" t="s">
         <v>404</v>
@@ -8276,7 +8276,7 @@
         <v>21523</v>
       </c>
       <c r="B46" t="n">
-        <v>135928</v>
+        <v>166860</v>
       </c>
       <c r="C46" t="s">
         <v>413</v>
@@ -8351,7 +8351,7 @@
         <v>21523</v>
       </c>
       <c r="B47" t="n">
-        <v>135929</v>
+        <v>166861</v>
       </c>
       <c r="C47" t="s">
         <v>419</v>
@@ -8426,7 +8426,7 @@
         <v>21523</v>
       </c>
       <c r="B48" t="n">
-        <v>135930</v>
+        <v>166862</v>
       </c>
       <c r="C48" t="s">
         <v>428</v>
@@ -8576,7 +8576,7 @@
         <v>21523</v>
       </c>
       <c r="B50" t="n">
-        <v>135931</v>
+        <v>166863</v>
       </c>
       <c r="C50" t="s">
         <v>443</v>
@@ -8649,7 +8649,7 @@
         <v>21523</v>
       </c>
       <c r="B51" t="n">
-        <v>135932</v>
+        <v>166864</v>
       </c>
       <c r="C51" t="s">
         <v>450</v>
@@ -8724,7 +8724,7 @@
         <v>21523</v>
       </c>
       <c r="B52" t="n">
-        <v>135933</v>
+        <v>166865</v>
       </c>
       <c r="C52" t="s">
         <v>457</v>
@@ -8799,7 +8799,7 @@
         <v>21523</v>
       </c>
       <c r="B53" t="n">
-        <v>135934</v>
+        <v>166866</v>
       </c>
       <c r="C53" t="s">
         <v>467</v>
@@ -8874,7 +8874,7 @@
         <v>21523</v>
       </c>
       <c r="B54" t="n">
-        <v>135935</v>
+        <v>166867</v>
       </c>
       <c r="C54" t="s">
         <v>476</v>
@@ -8949,7 +8949,7 @@
         <v>21523</v>
       </c>
       <c r="B55" t="n">
-        <v>135936</v>
+        <v>166868</v>
       </c>
       <c r="C55" t="s">
         <v>483</v>
@@ -9024,7 +9024,7 @@
         <v>21523</v>
       </c>
       <c r="B56" t="n">
-        <v>135937</v>
+        <v>166869</v>
       </c>
       <c r="C56" t="s">
         <v>493</v>
@@ -9170,7 +9170,7 @@
         <v>21523</v>
       </c>
       <c r="B58" t="n">
-        <v>135938</v>
+        <v>166870</v>
       </c>
       <c r="C58" t="s">
         <v>512</v>
@@ -9320,7 +9320,7 @@
         <v>21523</v>
       </c>
       <c r="B60" t="n">
-        <v>135939</v>
+        <v>166871</v>
       </c>
       <c r="C60" t="s">
         <v>529</v>
@@ -9395,7 +9395,7 @@
         <v>21523</v>
       </c>
       <c r="B61" t="n">
-        <v>135940</v>
+        <v>166872</v>
       </c>
       <c r="C61" t="s">
         <v>535</v>
@@ -9541,7 +9541,7 @@
         <v>21523</v>
       </c>
       <c r="B63" t="n">
-        <v>135941</v>
+        <v>166873</v>
       </c>
       <c r="C63" t="s">
         <v>549</v>
@@ -9616,7 +9616,7 @@
         <v>21523</v>
       </c>
       <c r="B64" t="n">
-        <v>135942</v>
+        <v>166874</v>
       </c>
       <c r="C64" t="s">
         <v>559</v>
@@ -9689,7 +9689,7 @@
         <v>21523</v>
       </c>
       <c r="B65" t="n">
-        <v>135943</v>
+        <v>166875</v>
       </c>
       <c r="C65" t="s">
         <v>565</v>
@@ -9764,7 +9764,7 @@
         <v>21523</v>
       </c>
       <c r="B66" t="n">
-        <v>135944</v>
+        <v>166876</v>
       </c>
       <c r="C66" t="s">
         <v>574</v>
@@ -9839,7 +9839,7 @@
         <v>21523</v>
       </c>
       <c r="B67" t="n">
-        <v>135945</v>
+        <v>166877</v>
       </c>
       <c r="C67" t="s">
         <v>583</v>
@@ -9912,7 +9912,7 @@
         <v>21523</v>
       </c>
       <c r="B68" t="n">
-        <v>135946</v>
+        <v>166878</v>
       </c>
       <c r="C68" t="s">
         <v>589</v>
@@ -9987,7 +9987,7 @@
         <v>21523</v>
       </c>
       <c r="B69" t="n">
-        <v>135947</v>
+        <v>166879</v>
       </c>
       <c r="C69" t="s">
         <v>596</v>
@@ -10062,7 +10062,7 @@
         <v>21523</v>
       </c>
       <c r="B70" t="n">
-        <v>135948</v>
+        <v>166880</v>
       </c>
       <c r="C70" t="s">
         <v>604</v>
@@ -10135,7 +10135,7 @@
         <v>21523</v>
       </c>
       <c r="B71" t="n">
-        <v>135949</v>
+        <v>166881</v>
       </c>
       <c r="C71" t="s">
         <v>608</v>
@@ -10206,7 +10206,7 @@
         <v>21523</v>
       </c>
       <c r="B72" t="n">
-        <v>135950</v>
+        <v>166882</v>
       </c>
       <c r="C72" t="s">
         <v>615</v>
@@ -10406,7 +10406,7 @@
         <v>21523</v>
       </c>
       <c r="B75" t="n">
-        <v>135951</v>
+        <v>166883</v>
       </c>
       <c r="C75" t="s">
         <v>636</v>
@@ -10479,7 +10479,7 @@
         <v>21523</v>
       </c>
       <c r="B76" t="n">
-        <v>135952</v>
+        <v>166884</v>
       </c>
       <c r="C76" t="s">
         <v>642</v>
@@ -10550,7 +10550,7 @@
         <v>21523</v>
       </c>
       <c r="B77" t="n">
-        <v>135953</v>
+        <v>166885</v>
       </c>
       <c r="C77" t="s">
         <v>650</v>
@@ -10700,7 +10700,7 @@
         <v>21523</v>
       </c>
       <c r="B79" t="n">
-        <v>135954</v>
+        <v>166886</v>
       </c>
       <c r="C79" t="s">
         <v>665</v>
@@ -10775,7 +10775,7 @@
         <v>21523</v>
       </c>
       <c r="B80" t="n">
-        <v>135955</v>
+        <v>166887</v>
       </c>
       <c r="C80" t="s">
         <v>671</v>
@@ -10923,7 +10923,7 @@
         <v>21523</v>
       </c>
       <c r="B82" t="n">
-        <v>135956</v>
+        <v>166888</v>
       </c>
       <c r="C82" t="s">
         <v>682</v>
@@ -10998,7 +10998,7 @@
         <v>21523</v>
       </c>
       <c r="B83" t="n">
-        <v>135957</v>
+        <v>166889</v>
       </c>
       <c r="C83" t="s">
         <v>689</v>
@@ -11073,7 +11073,7 @@
         <v>21523</v>
       </c>
       <c r="B84" t="n">
-        <v>135958</v>
+        <v>166890</v>
       </c>
       <c r="C84" t="s">
         <v>699</v>
@@ -11148,7 +11148,7 @@
         <v>21523</v>
       </c>
       <c r="B85" t="n">
-        <v>135959</v>
+        <v>166891</v>
       </c>
       <c r="C85" t="s">
         <v>705</v>
@@ -11221,7 +11221,7 @@
         <v>21523</v>
       </c>
       <c r="B86" t="n">
-        <v>135960</v>
+        <v>166892</v>
       </c>
       <c r="C86" t="s">
         <v>709</v>
@@ -11296,7 +11296,7 @@
         <v>21523</v>
       </c>
       <c r="B87" t="n">
-        <v>135961</v>
+        <v>166893</v>
       </c>
       <c r="C87" t="s">
         <v>719</v>
@@ -11371,7 +11371,7 @@
         <v>21523</v>
       </c>
       <c r="B88" t="n">
-        <v>135962</v>
+        <v>166894</v>
       </c>
       <c r="C88" t="s">
         <v>725</v>
@@ -11446,7 +11446,7 @@
         <v>21523</v>
       </c>
       <c r="B89" t="n">
-        <v>135963</v>
+        <v>166895</v>
       </c>
       <c r="C89" t="s">
         <v>732</v>
@@ -11511,7 +11511,7 @@
         <v>21523</v>
       </c>
       <c r="B90" t="n">
-        <v>135964</v>
+        <v>166896</v>
       </c>
       <c r="C90" t="s">
         <v>741</v>
@@ -11586,7 +11586,7 @@
         <v>21523</v>
       </c>
       <c r="B91" t="n">
-        <v>135965</v>
+        <v>166897</v>
       </c>
       <c r="C91" t="s">
         <v>751</v>
@@ -11661,7 +11661,7 @@
         <v>21523</v>
       </c>
       <c r="B92" t="n">
-        <v>135966</v>
+        <v>166898</v>
       </c>
       <c r="C92" t="s">
         <v>758</v>
@@ -11736,7 +11736,7 @@
         <v>21523</v>
       </c>
       <c r="B93" t="n">
-        <v>135967</v>
+        <v>166899</v>
       </c>
       <c r="C93" t="s">
         <v>766</v>
@@ -11811,7 +11811,7 @@
         <v>21523</v>
       </c>
       <c r="B94" t="n">
-        <v>135968</v>
+        <v>166900</v>
       </c>
       <c r="C94" t="s">
         <v>773</v>
@@ -12026,7 +12026,7 @@
         <v>21523</v>
       </c>
       <c r="B97" t="n">
-        <v>135969</v>
+        <v>166901</v>
       </c>
       <c r="C97" t="s">
         <v>794</v>
@@ -12091,7 +12091,7 @@
         <v>21523</v>
       </c>
       <c r="B98" t="n">
-        <v>135970</v>
+        <v>166902</v>
       </c>
       <c r="C98" t="s">
         <v>801</v>
@@ -12160,7 +12160,7 @@
         <v>21523</v>
       </c>
       <c r="B99" t="n">
-        <v>135971</v>
+        <v>166903</v>
       </c>
       <c r="C99" t="s">
         <v>806</v>
@@ -12231,7 +12231,7 @@
         <v>21523</v>
       </c>
       <c r="B100" t="n">
-        <v>135972</v>
+        <v>166904</v>
       </c>
       <c r="C100" t="s">
         <v>811</v>
@@ -12381,7 +12381,7 @@
         <v>21523</v>
       </c>
       <c r="B102" t="n">
-        <v>135973</v>
+        <v>166905</v>
       </c>
       <c r="C102" t="s">
         <v>826</v>
@@ -12513,7 +12513,7 @@
         <v>21523</v>
       </c>
       <c r="B104" t="n">
-        <v>135974</v>
+        <v>166906</v>
       </c>
       <c r="C104" t="s">
         <v>838</v>
@@ -12567,7 +12567,7 @@
         <v>21523</v>
       </c>
       <c r="B105" t="n">
-        <v>135975</v>
+        <v>166907</v>
       </c>
       <c r="C105" t="s">
         <v>843</v>
@@ -12717,7 +12717,7 @@
         <v>21523</v>
       </c>
       <c r="B107" t="n">
-        <v>135976</v>
+        <v>166908</v>
       </c>
       <c r="C107" t="s">
         <v>858</v>
@@ -12788,7 +12788,7 @@
         <v>21523</v>
       </c>
       <c r="B108" t="n">
-        <v>135977</v>
+        <v>166909</v>
       </c>
       <c r="C108" t="s">
         <v>863</v>
@@ -12859,7 +12859,7 @@
         <v>21523</v>
       </c>
       <c r="B109" t="n">
-        <v>135978</v>
+        <v>166910</v>
       </c>
       <c r="C109" t="s">
         <v>869</v>
@@ -12932,7 +12932,7 @@
         <v>21523</v>
       </c>
       <c r="B110" t="n">
-        <v>135979</v>
+        <v>166911</v>
       </c>
       <c r="C110" t="s">
         <v>875</v>
@@ -13065,7 +13065,7 @@
         <v>21523</v>
       </c>
       <c r="B112" t="n">
-        <v>135980</v>
+        <v>166912</v>
       </c>
       <c r="C112" t="s">
         <v>886</v>
@@ -13136,7 +13136,7 @@
         <v>21523</v>
       </c>
       <c r="B113" t="n">
-        <v>135981</v>
+        <v>166913</v>
       </c>
       <c r="C113" t="s">
         <v>892</v>
@@ -13268,7 +13268,7 @@
         <v>21523</v>
       </c>
       <c r="B115" t="n">
-        <v>135982</v>
+        <v>166914</v>
       </c>
       <c r="C115" t="s">
         <v>908</v>
@@ -13341,7 +13341,7 @@
         <v>21523</v>
       </c>
       <c r="B116" t="n">
-        <v>135983</v>
+        <v>166915</v>
       </c>
       <c r="C116" t="s">
         <v>911</v>
@@ -13412,7 +13412,7 @@
         <v>21523</v>
       </c>
       <c r="B117" t="n">
-        <v>135984</v>
+        <v>166916</v>
       </c>
       <c r="C117" t="s">
         <v>919</v>
@@ -13473,7 +13473,7 @@
         <v>21523</v>
       </c>
       <c r="B118" t="n">
-        <v>135985</v>
+        <v>166917</v>
       </c>
       <c r="C118" t="s">
         <v>928</v>
@@ -13544,7 +13544,7 @@
         <v>21523</v>
       </c>
       <c r="B119" t="n">
-        <v>135986</v>
+        <v>166918</v>
       </c>
       <c r="C119" t="s">
         <v>935</v>
@@ -13609,7 +13609,7 @@
         <v>21523</v>
       </c>
       <c r="B120" t="n">
-        <v>135987</v>
+        <v>166919</v>
       </c>
       <c r="C120" t="s">
         <v>944</v>
@@ -13755,7 +13755,7 @@
         <v>21523</v>
       </c>
       <c r="B122" t="n">
-        <v>135988</v>
+        <v>166920</v>
       </c>
       <c r="C122" t="s">
         <v>959</v>
@@ -13830,7 +13830,7 @@
         <v>21523</v>
       </c>
       <c r="B123" t="n">
-        <v>135989</v>
+        <v>166921</v>
       </c>
       <c r="C123" t="s">
         <v>967</v>
@@ -13903,7 +13903,7 @@
         <v>21523</v>
       </c>
       <c r="B124" t="n">
-        <v>135990</v>
+        <v>166922</v>
       </c>
       <c r="C124" t="s">
         <v>971</v>
@@ -13976,7 +13976,7 @@
         <v>21523</v>
       </c>
       <c r="B125" t="n">
-        <v>135991</v>
+        <v>166923</v>
       </c>
       <c r="C125" t="s">
         <v>975</v>
@@ -14045,7 +14045,7 @@
         <v>21523</v>
       </c>
       <c r="B126" t="n">
-        <v>135992</v>
+        <v>166924</v>
       </c>
       <c r="C126" t="s">
         <v>981</v>
@@ -14120,7 +14120,7 @@
         <v>21523</v>
       </c>
       <c r="B127" t="n">
-        <v>135993</v>
+        <v>166925</v>
       </c>
       <c r="C127" t="s">
         <v>987</v>
@@ -14185,7 +14185,7 @@
         <v>21523</v>
       </c>
       <c r="B128" t="n">
-        <v>135994</v>
+        <v>166926</v>
       </c>
       <c r="C128" t="s">
         <v>997</v>
@@ -14258,7 +14258,7 @@
         <v>21523</v>
       </c>
       <c r="B129" t="n">
-        <v>135995</v>
+        <v>166927</v>
       </c>
       <c r="C129" t="s">
         <v>1004</v>
@@ -14333,7 +14333,7 @@
         <v>21523</v>
       </c>
       <c r="B130" t="n">
-        <v>135996</v>
+        <v>166928</v>
       </c>
       <c r="C130" t="s">
         <v>1011</v>
@@ -14558,7 +14558,7 @@
         <v>21523</v>
       </c>
       <c r="B133" t="n">
-        <v>135997</v>
+        <v>166929</v>
       </c>
       <c r="C133" t="s">
         <v>1036</v>
@@ -14629,7 +14629,7 @@
         <v>21523</v>
       </c>
       <c r="B134" t="n">
-        <v>135998</v>
+        <v>166930</v>
       </c>
       <c r="C134" t="s">
         <v>1045</v>
@@ -14696,7 +14696,7 @@
         <v>21523</v>
       </c>
       <c r="B135" t="n">
-        <v>135999</v>
+        <v>166931</v>
       </c>
       <c r="C135" t="s">
         <v>1055</v>
@@ -14917,7 +14917,7 @@
         <v>21523</v>
       </c>
       <c r="B138" t="n">
-        <v>136000</v>
+        <v>166932</v>
       </c>
       <c r="C138" t="s">
         <v>1079</v>
@@ -15122,7 +15122,7 @@
         <v>21523</v>
       </c>
       <c r="B141" t="n">
-        <v>136001</v>
+        <v>166933</v>
       </c>
       <c r="C141" t="s">
         <v>1102</v>
@@ -15185,7 +15185,7 @@
         <v>21523</v>
       </c>
       <c r="B142" t="n">
-        <v>136002</v>
+        <v>166934</v>
       </c>
       <c r="C142" t="s">
         <v>1108</v>
@@ -15331,7 +15331,7 @@
         <v>21523</v>
       </c>
       <c r="B144" t="n">
-        <v>136003</v>
+        <v>166935</v>
       </c>
       <c r="C144" t="s">
         <v>1127</v>
@@ -15402,7 +15402,7 @@
         <v>21523</v>
       </c>
       <c r="B145" t="n">
-        <v>136004</v>
+        <v>166936</v>
       </c>
       <c r="C145" t="s">
         <v>1134</v>
@@ -15467,7 +15467,7 @@
         <v>21523</v>
       </c>
       <c r="B146" t="n">
-        <v>136005</v>
+        <v>166937</v>
       </c>
       <c r="C146" t="s">
         <v>1143</v>
@@ -15542,7 +15542,7 @@
         <v>21523</v>
       </c>
       <c r="B147" t="n">
-        <v>136006</v>
+        <v>166938</v>
       </c>
       <c r="C147" t="s">
         <v>1151</v>
@@ -15952,7 +15952,7 @@
         <v>21523</v>
       </c>
       <c r="B153" t="n">
-        <v>136007</v>
+        <v>166939</v>
       </c>
       <c r="C153" t="s">
         <v>1186</v>
@@ -16023,7 +16023,7 @@
         <v>21523</v>
       </c>
       <c r="B154" t="n">
-        <v>136008</v>
+        <v>166940</v>
       </c>
       <c r="C154" t="s">
         <v>1192</v>
@@ -16094,7 +16094,7 @@
         <v>21523</v>
       </c>
       <c r="B155" t="n">
-        <v>136009</v>
+        <v>166941</v>
       </c>
       <c r="C155" t="s">
         <v>1198</v>
@@ -16231,7 +16231,7 @@
         <v>21523</v>
       </c>
       <c r="B157" t="n">
-        <v>136010</v>
+        <v>166942</v>
       </c>
       <c r="C157" t="s">
         <v>1212</v>
@@ -16293,7 +16293,7 @@
         <v>21523</v>
       </c>
       <c r="B158" t="n">
-        <v>136011</v>
+        <v>166943</v>
       </c>
       <c r="C158" t="s">
         <v>1216</v>
@@ -16364,7 +16364,7 @@
         <v>21523</v>
       </c>
       <c r="B159" t="n">
-        <v>136012</v>
+        <v>166944</v>
       </c>
       <c r="C159" t="s">
         <v>1223</v>
@@ -16435,7 +16435,7 @@
         <v>21523</v>
       </c>
       <c r="B160" t="n">
-        <v>136013</v>
+        <v>166945</v>
       </c>
       <c r="C160" t="s">
         <v>1230</v>
@@ -16843,7 +16843,7 @@
         <v>21523</v>
       </c>
       <c r="B166" t="n">
-        <v>136014</v>
+        <v>166946</v>
       </c>
       <c r="C166" t="s">
         <v>1266</v>
@@ -16914,7 +16914,7 @@
         <v>21523</v>
       </c>
       <c r="B167" t="n">
-        <v>136015</v>
+        <v>166947</v>
       </c>
       <c r="C167" t="s">
         <v>1272</v>
@@ -16985,7 +16985,7 @@
         <v>21523</v>
       </c>
       <c r="B168" t="n">
-        <v>136016</v>
+        <v>166948</v>
       </c>
       <c r="C168" t="s">
         <v>1279</v>
@@ -17056,7 +17056,7 @@
         <v>21523</v>
       </c>
       <c r="B169" t="n">
-        <v>136017</v>
+        <v>166949</v>
       </c>
       <c r="C169" t="s">
         <v>1285</v>
@@ -17127,7 +17127,7 @@
         <v>21523</v>
       </c>
       <c r="B170" t="n">
-        <v>136018</v>
+        <v>166950</v>
       </c>
       <c r="C170" t="s">
         <v>1291</v>
@@ -17267,7 +17267,7 @@
         <v>21523</v>
       </c>
       <c r="B172" t="n">
-        <v>136019</v>
+        <v>166951</v>
       </c>
       <c r="C172" t="s">
         <v>1300</v>
@@ -17338,7 +17338,7 @@
         <v>21523</v>
       </c>
       <c r="B173" t="n">
-        <v>136020</v>
+        <v>166952</v>
       </c>
       <c r="C173" t="s">
         <v>1307</v>
@@ -17409,7 +17409,7 @@
         <v>21523</v>
       </c>
       <c r="B174" t="n">
-        <v>136021</v>
+        <v>166953</v>
       </c>
       <c r="C174" t="s">
         <v>1314</v>
@@ -17542,7 +17542,7 @@
         <v>21523</v>
       </c>
       <c r="B176" t="n">
-        <v>136022</v>
+        <v>166954</v>
       </c>
       <c r="C176" t="s">
         <v>1325</v>
@@ -17671,7 +17671,7 @@
         <v>21523</v>
       </c>
       <c r="B178" t="n">
-        <v>136023</v>
+        <v>166955</v>
       </c>
       <c r="C178" t="s">
         <v>1335</v>
@@ -17804,7 +17804,7 @@
         <v>21523</v>
       </c>
       <c r="B180" t="n">
-        <v>136024</v>
+        <v>166956</v>
       </c>
       <c r="C180" t="s">
         <v>1346</v>
@@ -17942,7 +17942,7 @@
         <v>21523</v>
       </c>
       <c r="B182" t="n">
-        <v>136025</v>
+        <v>166957</v>
       </c>
       <c r="C182" t="s">
         <v>1359</v>
@@ -18011,7 +18011,7 @@
         <v>21523</v>
       </c>
       <c r="B183" t="n">
-        <v>136026</v>
+        <v>166958</v>
       </c>
       <c r="C183" t="s">
         <v>1363</v>
@@ -18082,7 +18082,7 @@
         <v>21523</v>
       </c>
       <c r="B184" t="n">
-        <v>136027</v>
+        <v>166959</v>
       </c>
       <c r="C184" t="s">
         <v>1370</v>
@@ -18153,7 +18153,7 @@
         <v>21523</v>
       </c>
       <c r="B185" t="n">
-        <v>136028</v>
+        <v>166960</v>
       </c>
       <c r="C185" t="s">
         <v>1376</v>
@@ -18277,7 +18277,7 @@
         <v>21523</v>
       </c>
       <c r="B187" t="n">
-        <v>136029</v>
+        <v>166961</v>
       </c>
       <c r="C187" t="s">
         <v>1384</v>
@@ -18419,7 +18419,7 @@
         <v>21523</v>
       </c>
       <c r="B189" t="n">
-        <v>136030</v>
+        <v>166962</v>
       </c>
       <c r="C189" t="s">
         <v>1396</v>
@@ -18490,7 +18490,7 @@
         <v>21523</v>
       </c>
       <c r="B190" t="n">
-        <v>136031</v>
+        <v>166963</v>
       </c>
       <c r="C190" t="s">
         <v>1403</v>
@@ -18552,7 +18552,7 @@
         <v>21523</v>
       </c>
       <c r="B191" t="n">
-        <v>136032</v>
+        <v>166964</v>
       </c>
       <c r="C191" t="s">
         <v>1407</v>
@@ -18623,7 +18623,7 @@
         <v>21523</v>
       </c>
       <c r="B192" t="n">
-        <v>136033</v>
+        <v>166965</v>
       </c>
       <c r="C192" t="s">
         <v>1415</v>
@@ -18767,7 +18767,7 @@
         <v>21523</v>
       </c>
       <c r="B194" t="n">
-        <v>136034</v>
+        <v>166966</v>
       </c>
       <c r="C194" t="s">
         <v>1426</v>
@@ -18909,7 +18909,7 @@
         <v>21523</v>
       </c>
       <c r="B196" t="n">
-        <v>136035</v>
+        <v>166967</v>
       </c>
       <c r="C196" t="s">
         <v>1438</v>
@@ -19051,7 +19051,7 @@
         <v>21523</v>
       </c>
       <c r="B198" t="n">
-        <v>136036</v>
+        <v>166968</v>
       </c>
       <c r="C198" t="s">
         <v>1449</v>
@@ -19118,7 +19118,7 @@
         <v>21523</v>
       </c>
       <c r="B199" t="n">
-        <v>136037</v>
+        <v>166969</v>
       </c>
       <c r="C199" t="s">
         <v>1456</v>
@@ -19185,7 +19185,7 @@
         <v>21523</v>
       </c>
       <c r="B200" t="n">
-        <v>136038</v>
+        <v>166970</v>
       </c>
       <c r="C200" t="s">
         <v>1462</v>
@@ -19256,7 +19256,7 @@
         <v>21523</v>
       </c>
       <c r="B201" t="n">
-        <v>136039</v>
+        <v>166971</v>
       </c>
       <c r="C201" t="s">
         <v>1469</v>
@@ -19398,7 +19398,7 @@
         <v>21523</v>
       </c>
       <c r="B203" t="n">
-        <v>136040</v>
+        <v>166972</v>
       </c>
       <c r="C203" t="s">
         <v>1484</v>
